--- a/config_12.08/game_module_config.xlsx
+++ b/config_12.08/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="922">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3849,6 +3849,33 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月23日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月30日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月30日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12dhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二兑换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12DHHLManager</t>
+  </si>
+  <si>
+    <t>12月14日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4385,13 +4412,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G265" sqref="G265"/>
+      <selection pane="bottomRight" activeCell="J302" sqref="J302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4404,6 +4431,7 @@
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="7" width="9.125" customWidth="1"/>
     <col min="8" max="8" width="25.375" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -11404,13 +11432,13 @@
         <v>826</v>
       </c>
       <c r="E276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" s="24" t="s">
         <v>827</v>
@@ -11967,16 +11995,16 @@
         <v>905</v>
       </c>
       <c r="E298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G298">
-        <v>1</v>
-      </c>
-      <c r="I298" s="24" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I298" s="18" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11993,16 +12021,16 @@
         <v>906</v>
       </c>
       <c r="E299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G299">
-        <v>1</v>
-      </c>
-      <c r="I299" s="24" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I299" s="18" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12019,16 +12047,16 @@
         <v>910</v>
       </c>
       <c r="E300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G300">
-        <v>1</v>
-      </c>
-      <c r="I300" s="24" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I300" s="18" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12055,6 +12083,32 @@
       </c>
       <c r="I301" s="24" t="s">
         <v>914</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="19">
+        <v>301</v>
+      </c>
+      <c r="B302" s="25" t="s">
+        <v>918</v>
+      </c>
+      <c r="C302" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="D302" s="25" t="s">
+        <v>920</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302">
+        <v>1</v>
+      </c>
+      <c r="G302">
+        <v>1</v>
+      </c>
+      <c r="I302" s="24" t="s">
+        <v>921</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.08/game_module_config.xlsx
+++ b/config_12.08/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="925">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3876,6 +3876,18 @@
   </si>
   <si>
     <t>12月14日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二礼盒收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lhsjb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4412,13 +4424,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J302" sqref="J302"/>
+      <selection pane="bottomRight" activeCell="I303" sqref="I303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12108,6 +12120,32 @@
         <v>1</v>
       </c>
       <c r="I302" s="24" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="19">
+        <v>302</v>
+      </c>
+      <c r="B303" s="25" t="s">
+        <v>924</v>
+      </c>
+      <c r="C303" s="18" t="s">
+        <v>922</v>
+      </c>
+      <c r="D303" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="E303">
+        <v>1</v>
+      </c>
+      <c r="F303">
+        <v>1</v>
+      </c>
+      <c r="G303">
+        <v>1</v>
+      </c>
+      <c r="I303" s="24" t="s">
         <v>921</v>
       </c>
     </row>

--- a/config_12.08/game_module_config.xlsx
+++ b/config_12.08/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="927">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3513,15 +3513,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>畅玩礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_030_CWLBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3888,6 +3880,22 @@
   </si>
   <si>
     <t>act_038_s12lhsjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月14日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二页签</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3972,7 +3980,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4009,6 +4017,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4041,7 +4055,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4145,6 +4159,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4424,13 +4450,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I303"/>
+  <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I303" sqref="I303"/>
+      <selection pane="bottomRight" activeCell="A304" sqref="A304:XFD304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8396,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11409,7 +11435,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C275" s="18" t="s">
         <v>820</v>
@@ -11479,30 +11505,30 @@
         <v>830</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="19">
+    <row r="278" spans="1:9" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="35">
         <v>277</v>
       </c>
-      <c r="B278" s="18" t="s">
+      <c r="B278" s="36" t="s">
         <v>831</v>
       </c>
-      <c r="C278" s="18" t="s">
+      <c r="C278" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="D278" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="D278" s="23" t="s">
-        <v>833</v>
-      </c>
-      <c r="E278">
-        <v>1</v>
-      </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="G278">
-        <v>1</v>
-      </c>
-      <c r="I278" s="24" t="s">
-        <v>834</v>
+      <c r="E278" s="38">
+        <v>1</v>
+      </c>
+      <c r="F278" s="38">
+        <v>1</v>
+      </c>
+      <c r="G278" s="38">
+        <v>1</v>
+      </c>
+      <c r="I278" s="36" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11510,13 +11536,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -11528,7 +11554,7 @@
         <v>1</v>
       </c>
       <c r="I279" s="24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11536,22 +11562,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C280" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="24" t="s">
         <v>837</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="24" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11559,13 +11585,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11577,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="24" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11585,13 +11611,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="C282" s="18" t="s">
         <v>844</v>
       </c>
-      <c r="C282" s="18" t="s">
-        <v>846</v>
-      </c>
       <c r="D282" s="23" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -11603,7 +11629,7 @@
         <v>1</v>
       </c>
       <c r="I282" s="24" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11611,13 +11637,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C283" s="18" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -11629,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="I283" s="24" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11637,25 +11663,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="C284" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="D284" s="23" t="s">
         <v>850</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="24" t="s">
         <v>851</v>
-      </c>
-      <c r="D284" s="23" t="s">
-        <v>852</v>
-      </c>
-      <c r="E284">
-        <v>1</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="24" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11663,13 +11689,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="27" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D285" s="27" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E285" s="28">
         <v>1</v>
@@ -11689,25 +11715,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="18" t="s">
+        <v>859</v>
+      </c>
+      <c r="C286" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="D286" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="C286" s="18" t="s">
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="24" t="s">
         <v>862</v>
-      </c>
-      <c r="D286" s="23" t="s">
-        <v>863</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="24" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11715,13 +11741,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C287" s="18" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D287" s="23" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -11741,25 +11767,25 @@
         <v>287</v>
       </c>
       <c r="B288" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="C288" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="D288" s="23" t="s">
         <v>868</v>
       </c>
-      <c r="C288" s="18" t="s">
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="I288" s="24" t="s">
         <v>869</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>870</v>
-      </c>
-      <c r="E288">
-        <v>1</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-      <c r="I288" s="24" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11767,14 +11793,14 @@
         <v>288</v>
       </c>
       <c r="B289" s="33" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C289" s="33" t="s">
+        <v>873</v>
+      </c>
+      <c r="D289" s="33" t="s">
         <v>875</v>
       </c>
-      <c r="D289" s="33" t="s">
-        <v>877</v>
-      </c>
       <c r="E289" s="32">
         <v>1</v>
       </c>
@@ -11785,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="I289" s="33" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11793,11 +11819,11 @@
         <v>289</v>
       </c>
       <c r="B290" s="33" t="s">
+        <v>872</v>
+      </c>
+      <c r="C290" s="33" t="s">
         <v>874</v>
       </c>
-      <c r="C290" s="33" t="s">
-        <v>876</v>
-      </c>
       <c r="E290" s="32">
         <v>1</v>
       </c>
@@ -11808,7 +11834,7 @@
         <v>1</v>
       </c>
       <c r="I290" s="34" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11816,25 +11842,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="C291" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="D291" s="23" t="s">
         <v>878</v>
       </c>
-      <c r="C291" s="18" t="s">
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" s="24" t="s">
         <v>879</v>
-      </c>
-      <c r="D291" s="23" t="s">
-        <v>880</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" s="24" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11842,25 +11868,25 @@
         <v>291</v>
       </c>
       <c r="B292" s="25" t="s">
+        <v>880</v>
+      </c>
+      <c r="C292" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="D292" s="25" t="s">
         <v>882</v>
       </c>
-      <c r="C292" s="18" t="s">
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" s="24" t="s">
         <v>883</v>
-      </c>
-      <c r="D292" s="25" t="s">
-        <v>884</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" s="24" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11868,13 +11894,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="25" t="s">
+        <v>884</v>
+      </c>
+      <c r="C293" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="D293" s="25" t="s">
         <v>886</v>
-      </c>
-      <c r="C293" s="18" t="s">
-        <v>887</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>888</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -11894,13 +11920,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="25" t="s">
+        <v>887</v>
+      </c>
+      <c r="C294" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="D294" s="25" t="s">
         <v>889</v>
-      </c>
-      <c r="C294" s="18" t="s">
-        <v>894</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>891</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -11920,14 +11946,14 @@
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
+        <v>888</v>
+      </c>
+      <c r="C295" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="D295" s="25" t="s">
         <v>890</v>
       </c>
-      <c r="C295" s="18" t="s">
-        <v>895</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>892</v>
-      </c>
       <c r="E295">
         <v>1</v>
       </c>
@@ -11938,7 +11964,7 @@
         <v>1</v>
       </c>
       <c r="I295" s="24" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11946,13 +11972,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="25" t="s">
+        <v>894</v>
+      </c>
+      <c r="C296" s="18" t="s">
+        <v>895</v>
+      </c>
+      <c r="D296" s="25" t="s">
         <v>896</v>
-      </c>
-      <c r="C296" s="18" t="s">
-        <v>897</v>
-      </c>
-      <c r="D296" s="25" t="s">
-        <v>898</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -11972,13 +11998,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="25" t="s">
+        <v>897</v>
+      </c>
+      <c r="C297" s="18" t="s">
+        <v>898</v>
+      </c>
+      <c r="D297" s="25" t="s">
         <v>899</v>
-      </c>
-      <c r="C297" s="18" t="s">
-        <v>900</v>
-      </c>
-      <c r="D297" s="25" t="s">
-        <v>901</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -11998,14 +12024,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="25" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C298" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="D298" s="25" t="s">
         <v>903</v>
       </c>
-      <c r="D298" s="25" t="s">
-        <v>905</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12016,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="18" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12024,14 +12050,14 @@
         <v>298</v>
       </c>
       <c r="B299" s="25" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C299" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="D299" s="25" t="s">
         <v>904</v>
       </c>
-      <c r="D299" s="25" t="s">
-        <v>906</v>
-      </c>
       <c r="E299">
         <v>0</v>
       </c>
@@ -12042,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="I299" s="18" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12050,14 +12076,14 @@
         <v>299</v>
       </c>
       <c r="B300" s="25" t="s">
+        <v>906</v>
+      </c>
+      <c r="C300" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="D300" s="25" t="s">
         <v>908</v>
       </c>
-      <c r="C300" s="18" t="s">
-        <v>909</v>
-      </c>
-      <c r="D300" s="25" t="s">
-        <v>910</v>
-      </c>
       <c r="E300">
         <v>0</v>
       </c>
@@ -12068,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="I300" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12076,25 +12102,25 @@
         <v>300</v>
       </c>
       <c r="B301" s="25" t="s">
+        <v>909</v>
+      </c>
+      <c r="C301" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="D301" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="C301" s="18" t="s">
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="I301" s="24" t="s">
         <v>912</v>
-      </c>
-      <c r="D301" s="25" t="s">
-        <v>913</v>
-      </c>
-      <c r="E301">
-        <v>1</v>
-      </c>
-      <c r="F301">
-        <v>1</v>
-      </c>
-      <c r="G301">
-        <v>1</v>
-      </c>
-      <c r="I301" s="24" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12102,25 +12128,25 @@
         <v>301</v>
       </c>
       <c r="B302" s="25" t="s">
+        <v>916</v>
+      </c>
+      <c r="C302" s="18" t="s">
+        <v>917</v>
+      </c>
+      <c r="D302" s="25" t="s">
         <v>918</v>
       </c>
-      <c r="C302" s="18" t="s">
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302">
+        <v>1</v>
+      </c>
+      <c r="G302">
+        <v>1</v>
+      </c>
+      <c r="I302" s="24" t="s">
         <v>919</v>
-      </c>
-      <c r="D302" s="25" t="s">
-        <v>920</v>
-      </c>
-      <c r="E302">
-        <v>1</v>
-      </c>
-      <c r="F302">
-        <v>1</v>
-      </c>
-      <c r="G302">
-        <v>1</v>
-      </c>
-      <c r="I302" s="24" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12128,13 +12154,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="25" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C303" s="18" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D303" s="25" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -12146,7 +12172,30 @@
         <v>1</v>
       </c>
       <c r="I303" s="24" t="s">
-        <v>921</v>
+        <v>919</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="19">
+        <v>303</v>
+      </c>
+      <c r="B304" s="25" t="s">
+        <v>925</v>
+      </c>
+      <c r="C304" s="18" t="s">
+        <v>926</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="I304" s="24" t="s">
+        <v>919</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.08/game_module_config.xlsx
+++ b/config_12.08/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="930">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3896,6 +3896,18 @@
   </si>
   <si>
     <t>双十二页签</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双12礼盒掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lh_drop_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHDROPManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3980,7 +3992,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4023,6 +4035,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4055,7 +4073,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4171,6 +4189,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4450,13 +4483,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I304"/>
+  <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A304" sqref="A304:XFD304"/>
+      <selection pane="bottomRight" activeCell="D305" sqref="D305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12123,78 +12156,104 @@
         <v>912</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A302" s="19">
+    <row r="302" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="39">
         <v>301</v>
       </c>
-      <c r="B302" s="25" t="s">
+      <c r="B302" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="C302" s="18" t="s">
+      <c r="C302" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="D302" s="25" t="s">
+      <c r="D302" s="40" t="s">
         <v>918</v>
       </c>
-      <c r="E302">
-        <v>1</v>
-      </c>
-      <c r="F302">
-        <v>1</v>
-      </c>
-      <c r="G302">
-        <v>1</v>
-      </c>
-      <c r="I302" s="24" t="s">
+      <c r="E302" s="42">
+        <v>1</v>
+      </c>
+      <c r="F302" s="42">
+        <v>1</v>
+      </c>
+      <c r="G302" s="42">
+        <v>1</v>
+      </c>
+      <c r="I302" s="43" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="19">
+    <row r="303" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="39">
         <v>302</v>
       </c>
-      <c r="B303" s="25" t="s">
+      <c r="B303" s="40" t="s">
         <v>922</v>
       </c>
-      <c r="C303" s="18" t="s">
+      <c r="C303" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="D303" s="25" t="s">
+      <c r="D303" s="40" t="s">
         <v>921</v>
       </c>
-      <c r="E303">
-        <v>1</v>
-      </c>
-      <c r="F303">
-        <v>1</v>
-      </c>
-      <c r="G303">
-        <v>1</v>
-      </c>
-      <c r="I303" s="24" t="s">
+      <c r="E303" s="42">
+        <v>1</v>
+      </c>
+      <c r="F303" s="42">
+        <v>1</v>
+      </c>
+      <c r="G303" s="42">
+        <v>1</v>
+      </c>
+      <c r="I303" s="43" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A304" s="19">
+    <row r="304" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="39">
         <v>303</v>
       </c>
-      <c r="B304" s="25" t="s">
+      <c r="B304" s="40" t="s">
         <v>925</v>
       </c>
-      <c r="C304" s="18" t="s">
+      <c r="C304" s="41" t="s">
         <v>926</v>
       </c>
-      <c r="E304">
-        <v>1</v>
-      </c>
-      <c r="F304">
-        <v>1</v>
-      </c>
-      <c r="G304">
-        <v>1</v>
-      </c>
-      <c r="I304" s="24" t="s">
+      <c r="E304" s="42">
+        <v>1</v>
+      </c>
+      <c r="F304" s="42">
+        <v>1</v>
+      </c>
+      <c r="G304" s="42">
+        <v>1</v>
+      </c>
+      <c r="I304" s="43" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="39">
+        <v>304</v>
+      </c>
+      <c r="B305" s="40" t="s">
+        <v>928</v>
+      </c>
+      <c r="C305" s="41" t="s">
+        <v>927</v>
+      </c>
+      <c r="D305" s="40" t="s">
+        <v>929</v>
+      </c>
+      <c r="E305" s="42">
+        <v>1</v>
+      </c>
+      <c r="F305" s="42">
+        <v>1</v>
+      </c>
+      <c r="G305" s="42">
+        <v>1</v>
+      </c>
+      <c r="I305" s="43" t="s">
         <v>919</v>
       </c>
     </row>

--- a/config_12.08/game_module_config.xlsx
+++ b/config_12.08/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="933">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3908,6 +3908,18 @@
   </si>
   <si>
     <t>Act_038_S12LHDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_by_and_cjj_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_BY_AND_CJJ_CONDUCTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4483,13 +4495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:I306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D305" sqref="D305"/>
+      <selection pane="bottomRight" activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12255,6 +12267,29 @@
       </c>
       <c r="I305" s="43" t="s">
         <v>919</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A306" s="39">
+        <v>305</v>
+      </c>
+      <c r="B306" s="40" t="s">
+        <v>930</v>
+      </c>
+      <c r="D306" s="40" t="s">
+        <v>931</v>
+      </c>
+      <c r="E306" s="42">
+        <v>1</v>
+      </c>
+      <c r="F306" s="42">
+        <v>1</v>
+      </c>
+      <c r="G306" s="42">
+        <v>1</v>
+      </c>
+      <c r="I306" s="43" t="s">
+        <v>932</v>
       </c>
     </row>
   </sheetData>
